--- a/src/test/testdaten_delete_Mandantendaten/Mitarbeiter - privat versichert.xlsx
+++ b/src/test/testdaten_delete_Mandantendaten/Mitarbeiter - privat versichert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_delete_Mandantendaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BB0CFF-8D33-440F-9D4F-BF3E391D0E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45802EC0-9488-49C7-AF48-057157B3BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1860" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>11 111 111 111</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>M100003</t>
+  </si>
+  <si>
+    <t>juenger als 23 oder vor 1940 geboren?</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,65 +1110,71 @@
       </c>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>300.23</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>32.409999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1201,13 +1210,13 @@
           <x14:formula1>
             <xm:f>Tabelle2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B29 B38:B39 B35 B45:B48 B41:B42 B33</xm:sqref>
+          <xm:sqref>B29 B38:B39 B35 B46:B49 B42:B43 B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC540D61-4588-479B-B62B-BA6755FB2963}">
           <x14:formula1>
             <xm:f>Tabelle2!$G$2:$G$102</xm:f>
           </x14:formula1>
-          <xm:sqref>B40</xm:sqref>
+          <xm:sqref>B40:B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{340FCE44-5214-4D19-BA6F-DBB2AFEDFBC9}">
           <x14:formula1>

--- a/src/test/testdaten_delete_Mandantendaten/Mitarbeiter - privat versichert.xlsx
+++ b/src/test/testdaten_delete_Mandantendaten/Mitarbeiter - privat versichert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_delete_Mandantendaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45802EC0-9488-49C7-AF48-057157B3BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDECB3-A5EB-49C8-9ED4-26CEB410616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38835" yWindow="2250" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>11 111 111 111</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>juenger als 23 oder vor 1940 geboren?</t>
+  </si>
+  <si>
+    <t>zahlt AN-Minijob-Rentenpauschale</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,12 +366,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -382,6 +394,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -786,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,35 +1160,43 @@
         <v>32.409999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1210,7 +1232,7 @@
           <x14:formula1>
             <xm:f>Tabelle2!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B29 B38:B39 B35 B46:B49 B42:B43 B33</xm:sqref>
+          <xm:sqref>B29 B38:B39 B35 B33 B42:B43 B48:B50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC540D61-4588-479B-B62B-BA6755FB2963}">
           <x14:formula1>
